--- a/LF/TAS/lf_tas_1_site.xlsx
+++ b/LF/TAS/lf_tas_1_site.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbandubad\Repositories\generic-espen-collect-form\LF\TAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\generic-espen-collect-form\LF\TAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B98536C-B427-4FD9-ACC1-533D26F9B8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -130,15 +131,9 @@
     <t>Name of Village Leader or Head Teacher</t>
   </si>
   <si>
-    <t>c_clusterID1</t>
-  </si>
-  <si>
     <t>Enter Cluster ID</t>
   </si>
   <si>
-    <t>c_clusterID2</t>
-  </si>
-  <si>
     <t>Enter Cluster ID again</t>
   </si>
   <si>
@@ -169,9 +164,6 @@
     <t>GPS coordinates are easier to collect outside. 2 min timeout</t>
   </si>
   <si>
-    <t>c_ClusterNotes</t>
-  </si>
-  <si>
     <t>Additional notes to add?</t>
   </si>
   <si>
@@ -328,9 +320,6 @@
     <t>Le code doit être un nombre à deux chiffres entre 9 et 91</t>
   </si>
   <si>
-    <t>. = ${c_clusterID1}</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -356,12 +345,24 @@
   </si>
   <si>
     <t>Communauté</t>
+  </si>
+  <si>
+    <t>c_cluster_id1</t>
+  </si>
+  <si>
+    <t>c_cluster_id2</t>
+  </si>
+  <si>
+    <t>. = ${c_cluster_id2}</t>
+  </si>
+  <si>
+    <t>c_cluster_notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -790,14 +791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -834,10 +835,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>6</v>
@@ -849,7 +850,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>8</v>
@@ -872,7 +873,7 @@
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>19</v>
@@ -884,25 +885,25 @@
         <v>21</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -910,7 +911,7 @@
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>22</v>
@@ -920,7 +921,7 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
@@ -930,14 +931,14 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>24</v>
@@ -947,7 +948,7 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -956,17 +957,17 @@
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>26</v>
@@ -976,7 +977,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
@@ -986,7 +987,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -994,7 +995,7 @@
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>28</v>
@@ -1006,10 +1007,10 @@
         <v>30</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1018,7 +1019,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1026,33 +1027,33 @@
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1060,29 +1061,29 @@
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1090,7 +1091,7 @@
     </row>
     <row r="9" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>31</v>
@@ -1100,7 +1101,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -1110,7 +1111,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1118,17 +1119,17 @@
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="8"/>
@@ -1138,7 +1139,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
@@ -1146,93 +1147,93 @@
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F11" s="13"/>
       <c r="H11" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F12" s="13"/>
       <c r="M12" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>45</v>
-      </c>
       <c r="E13" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -1240,13 +1241,13 @@
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -1259,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1286,149 +1287,149 @@
         <v>15</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
         <v>86</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A14:C59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:C59">
     <sortCondition ref="B14:B59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1436,10 +1437,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1466,10 +1467,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C2">
         <v>20200402</v>

--- a/LF/TAS/lf_tas_1_site.xlsx
+++ b/LF/TAS/lf_tas_1_site.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -430,15 +430,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCECFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -448,16 +460,31 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,20 +494,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -488,25 +506,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -517,6 +587,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFCCECFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -797,7 +873,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="A1:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -821,436 +897,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4" t="s">
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="4" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="4" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="7" t="s">
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="7"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="7"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="4" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4" t="s">
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="4" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="H11" s="1" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9" t="s">
         <v>100</v>
       </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="M12" s="4" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9" t="s">
         <v>100</v>
       </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="4" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9" t="s">
         <v>100</v>
       </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1262,9 +1396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1276,156 +1410,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="30" t="s">
         <v>71</v>
       </c>
+      <c r="E2" s="28"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="30" t="s">
         <v>72</v>
       </c>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="28" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="28" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="28" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="30" t="s">
         <v>107</v>
       </c>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="30" t="s">
         <v>108</v>
       </c>
+      <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="30" t="s">
         <v>89</v>
       </c>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="30" t="s">
         <v>90</v>
       </c>
+      <c r="E10" s="28"/>
     </row>
   </sheetData>
   <sortState ref="A14:C59">
@@ -1439,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1451,16 +1591,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
